--- a/500all/speech_level/speeches_CHRG-114hhrg94186.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94186.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400348</t>
   </si>
   <si>
-    <t>Edward R. Royce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Royce. This hearing will come to order. I will ask if the members can all take their seats.    And I had an opportunity in the early 1980s to go into East Germany and spend some time there, and during that time to see the quality of propaganda being broadcast into the East Bloc by Russia, the type of disinformation campaign that was going on.    And I would have to say that since that time the caliber of propaganda has become much more clever than that which was disseminated then.    And today we are going to look at the danger of Russia's misinformation campaign in Europe and, indeed, today that misinformation campaign is worldwide and we are also going to look at the failed response to that effort.    And as we will hear today, Russia's propaganda machine is really at this time in overdrive and part of the focus, from my standpoint, seems to be to subvert democratic stability. And, frankly, there is also an element of this that goes to the issue of fomenting violence in Eastern Europe.    Now, myself and Eliot Engel had an opportunity to go into Dnepropetrovsk and talk to civil society, the women's groups, a lot of different organizations, the lawyers groups, and this was one of the issues that people are concerned about and these tactics have undermined the government in Ukraine and, frankly, helped lay a foundation for invasion there.    This same plan is being worked in Eastern and Central Europe and this Russian propaganda has the potential to destabilize NATO members and it could impact our security commitments, especially if we look at some of what is going on in the Baltic States.    So this Russian campaign, what one witness describes as the ``weaponization of information,'' seriously threatens U.S. security. Russia has deployed an information army inside television, radio, and newspapers throughout Europe.    Some are doing the Kremlin's bidding and are given explicit guidelines to obscure the truth by spreading conspiracies, and I would just give you examples of some of the things you read now on these Russian broadcasts or some of the things that are alluded to.    One was a conspiracy that our own Government here is responsible for everything from 9/11, the attack on 9/11 to the downing of Malaysia Flight MH17 over Ukraine. Others are simply paid more for demonizing the West, while those who pursue credible reporting are pushed aside.    Today, we will hear from journalist Liz Wahl, who dramatically interrupted a live broadcast to resign from RT, a Russian outlet, explaining she could not stand by its distorted coverage of Russia's occupation of Ukraine.    Meanwhile, independent journalists in Russia have come under attack. There have been three journalists in Russia killed so far this year. Unfortunately, Ms. Wahl is a rarity.    So Russian speakers in the frontline states like the Baltic, Ukraine, and Moldova continue to be told that their governments want to oppress and render them second class citizens.    Unfortunately, many are buying this divisive message. In parts of Europe where there aren't Russian speaking populations there is also a message and that message is that Western democracy is morally corrupt and that integration with Europe since the Cold War has failed.    It is estimated that Putin is spending more than $600 million a year to deride democratic pluralism and the U.S. response to this? Well, the agency expected to manage our response, the Broadcasting Board of Governors, is far behind.    After years of Mr. Putin ramping up the effort in Russia, last fall the BBG finally launched its flagship response to Russian propaganda--a mere 30-minute television news program in the Russian language called ``Current Time.''    The program was put on air in Lithuania, Moldova, Georgia, Ukraine, and Latvia. But after just 4 months it was pulled in Latvia because it couldn't draw an audience. Now, what U.S.-backed news and information that does get through, the amount of that is a thimble of journalistic credibility in an ocean of Russian-driven news distortion and this isn't a matter of resources, from my perspective.    U.S. broadcasters are laboring under a flawed bureaucracy. Members may recall that then Secretary Clinton called the agency defunct in her testimony before this committee in 2013.    The Inspector General and the Government Accountability Office have been highly critical, and the agency hired a CEO and he quit after 42 days on the job. Last week, the director of the VOA announced his resignation.    Our international broadcasting is in disarray. The journalists of the BBG risk their lives reporting from the front lines across the world. They deserve better support, and the American people need much more from this agency if we are going to respond to the rapidly evolving media environment and better secure the long-term security interests of the United States.    Last Congress, the House unanimously passed bipartisan legislation introduced by myself and Ranking Member Eliot Engel. This legislation is referenced in an op-ed today in the Wall Street Journal that I wrote.    But I will just share with the members here that that legislation will help us fight Putin's propaganda by allowing more resources to be spent in the field and on content instead of on a broken bureaucracy, and by clarifying the BBG's mission, creating accountable leadership through a CEO and reducing the bureaucracy, this can lead to a situation where the budget there can be spent on disseminating truthful news and that should be the goal.    Righting international broadcasting must be an urgent priority in our foreign policy, and now I would like to turn to the ranking member of this committee and the co-author of the legislation to do this, Mr. Eliot Engel of New York.</t>
   </si>
   <si>
     <t>400122</t>
   </si>
   <si>
-    <t>Eliot L. Engel</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Engel. Thank you very much, Mr. Chairman.    Thank you for calling this morning's hearing and I especially want to thank you for your leadership as this committee works to address the growing Russian threat. You have really been right on top of it.    I really appreciate it and it is just so important. Thank you for your courage and for your voice. It has been a pleasure to be your partner.    Let me also thank our witnesses today for sharing your expertise about a major part of that threat--Russia's new and intensified propaganda effort.    It is long past due that we take a hard look at this challenge. The Kremlin's disorientation campaign goes beyond political spin and disinformation.    What we see pouring out of the Kremlin amounts to the weaponization of information. Propaganda is a critical element of Russia's so-called hybrid warfare strategy, a strategy on devastating display in occupied Crimea and war-torn eastern Ukraine.    Coupled with cyber-attacks and other covert operations, these new capabilities and Vladimir Putin's belligerence pose a direct threat to our allies and our interests.    These measures are well financed, these measures are working and these measures demand a robust response from us. Kremlin-controlled media are putting down roots around the world.    Russian financial support is bolstering fringe political parties, creating puppet NGOs and fostering a facade of academic research sympathetic to Vladimir Putin's anti-democratic world view.    The Kremlin aims to undermine democratic organizations and alliances. Russia's leaders want to divide allies and partners while seeking to discredit the post-Cold War order in Europe.    This strategy is not just to disseminate lies but to sow doubt and confusion, especially about what is actually and really happening in Ukraine. The component of this propaganda war that concerns me most is the influx of Kremlin-controlled television broadcasts in frontline states.    From the Baltics to Central Asia, a Russian-speaking population of nearly 100 million people is getting its news from such distorted broadcasts. Here, the Kremlin uses high quality entertainment to draw an audience, then interlaces that programming with their twisted and false perspective on political, military and economic events.    Today, I hope we can hear more about Russia's propaganda campaign and, more importantly, what we can do to push back against it. We cannot match the hundreds of millions of dollars the Kremlin is blowing into this effort.    Instead, we must look to create thinking and broad-based partnerships. Given the scale of the Kremlin efforts, it is clear to me that traditional public affairs and public diplomacy, while important parts of a broader effort, do not go far enough.    We have seen some promising initiatives. For instance, the Governments of Latvia and Estonia are developing a plan to launch Russian language television networks in their respective countries.    They want to create platform for content sharing and establish a fund for the production of locally focused content. Additionally, we anticipate a feasibility study this spring from the European Endowment for Democracy recommending a similar approach.    Mr. Chairman, as you recognized, the United States needs its own strategy to deal with this and we need it now. I have been told that our State Department is now working full tilt toward a plan to address this problem.    This can't come soon enough. We are eager to work with the administration to develop this plan and set it in motion because the United States has a major role to play.    In my view, the United States is in a unique position to convene partners from the private sector that will be essential for the success of such initiatives. Furthermore, U.S. leadership will be necessary to ensuring that reluctant Western European allies understand and appreciate the risks posed by an unchecked Kremlin propaganda campaign.    One thing is clear. Meeting this challenge will certainly not be easy. A nondemocratic government in Russia is able to devote nearly limitless resources to spreading lies and sowing confusion, disinformation and division.    But the stakes are high and acting sooner rather than later will make a daunting task a little easier and much more effective over the long run.    I look forward to hearing our witnesses' views on this challenge and their ideas about how we are going to deal with it. So thank you again, Mr. Chairman, for calling this hearing.</t>
   </si>
   <si>
@@ -73,27 +67,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Pomerantsev</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pomerantsev. Thank you very much for having me here.    Russia's information war--we have been hearing these words a lot lately. Russia has launched the most amazing information warfare blitzkrieg we have ever seen since Supreme Allied Commander General Philip Breedlove after the annexation of Crimea.    We are losing the information war, complained the British head of the House of Commons' Culture and Media Committee as the Kremlin international media was launched in London.    Information war is now the main type of war, argues Dmitry Kiselyov, the infamous Russian TV presenter and Kremlin media boss who also likes to remind the world, and it shows, that Russia can turn the USA into radioactive ash. But what do we mean when we say information war?    Because if we mean propaganda as mass persuasion, propaganda in the sense of some sort of geopolitical debate where each side tries to convince the other it is right, well, then we don't understand the real threat of the Kremlin's information war at all.    To understand what it actually is, let us go back to 1999. Back then, Russian Defense Minister Marshal Igor Sergeyev admitted the Kremlin could never match the West militarily and needed to find, in his words, revolutionary powers and asymmetric responses to compete.    Look at it from the Kremlin's point of view. NATO is undefeatable on the battlefield. The West has a much stronger social and political system--democracy based on openness and competition.    But what if the Kremlin could bypass NATO militarily, make war without ever, officially at least, firing a shot? What if it could use the very openness of democracy's open markets, open culture and, very importantly, open information against us?    So over the 21st century, Russian military theorists developed a theory of what they called information psychological or hybrid war--a mix of media, economic and cultural warfare with a dab of covert military action.    We saw an early example of this is Estonia in 2007 when Estonian authorities decided to move a Soviet war memorial from the center of the city. Russian media, which is very widely available in Estonia, went into a frenzy, accusing the Estonians of fascism.    Russian vigilante groups started riots in the center of Tallinn. A massive cyber-attack disabled Estonia's Government and banking sectors.    Moscow was sending a message, despite membership of NATO and EU, that Estonia and all other frontline states were still vulnerable and the Kremlin could cripple them without giving Estonia a chance to invoke NATO's Article 5.    The aim was not just to humiliate Tallinn but show that Western and, specifically, American promises of security are empty and once the NATO alliance has been undermined and American influence weakened, then the Kremlin will have a stronger hand to play around the world.    Since 2007, the Kremlin's information psychological strategy has expanded. The Kremlin is now bankrolling and lending political support to both far right and far left parties in Europe while using open markets to make whole countries dependent on its money and energy.    Unlike their Soviet predecessors, this regime will work with anyone as long as they help create stability in their home countries. The Kremlin is also putting out its message in multiple media 24/7.    Russian language media reaches 30 million Russians outside of Russia, a lot of them in EU and NATO states. The Kremlin has invested hundreds of millions into foreign language media.    Russia Today (RT) broadcasts in English, Spanish, German and Arabic. There is the web and radio service Sputnik, while the Kremlin also funds troll farms, regime-funded companies who spread messages online in social media and comment sections.    Conspiracy theories, disinformation and fake news are a staple in these media claims that the U.S. invented Ebola as a weapon or re-editing interviews with Ukrainian rabbis to make it seem contrary to what they actually said, that there is a threat to the Jewish community in post-Maidan Ukraine, or even planting stories that the Rand Corporation is advising the Ukrainian Government on how to ethnically cleanse east Ukraine.    The ultimate aim of the Kremlin's international media is not to make anyone like Russia. It is not PR or necessarily engaged in fact-based journalism.    Instead, information is used to sow divisions, demoralize and disorganize--to weaponize information. After Malaysian Flight MH-17 was shot down over eastern Ukraine by Russian missiles last summer, Russian media spewed out scores of outlandish stories, blaming Ukrainian fighter jets, claiming the plane had deliberately taken off from Amsterdam carrying dead bodies.    Their aim appears to have been to trash the information space with so much misinformation that a conversation based on actual facts would become impossible. This is not merely an information war but a war on information.    If the very possibility of rational argument is submerged in a fog of uncertainty, the public will give up trying to understand what happened. Trust, the key ingredient of democracy, is destroyed and the strategy is working.    Recent research in Ukraine and the Baltics shows that audiences exposed to both Russian and local media end up not trusting anyone. In Germany, 43 percent do not trust anything they read on Ukraine.    Throughout Europe, conspiracy theories are on the rise and in the U.S. trust in the media has declined. The Kremlin may not always have initiated this phenomena but it is fanning them.    And I would like to finish with the fact it is not just Russia and the Kremlin doing it. The Chinese are starting a similar tactic in Asia. We see how ISIS works in the Middle East.    This is a global problem. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Royce. Thank you.    Ms. Wahl.</t>
   </si>
   <si>
-    <t>Wahl</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Wahl. All right. We are dealing with an organization that doesn't play by the rules, where the facts on the ground and the reality that citizens face as a result of them don't matter, at least when that reality clashes with Russia's foreign policy agenda.    In that case, one or more alternative realities are pushed, anything to deflect from the facts and confuse the public.    Of course, Russia has a history rich in propaganda but for a while it seemed to lie dormant as many hoped that a reset in diplomatic relations meant a change in direction.    But during the war in Ukraine, the Russian-funded television channel RT was mobilized as a weapon to manipulate people into believing half-truths and lies skewing reality in the Kremlin's favor.    And I saw firsthand how this was orchestrated. When the protests erupted in Maidan Square it was made to look not like a popular uprising but comprised mostly of bloodthirsty neo-Nazis and fascists.    Through misleading language, RT pinned the blame on the West for fomenting unrest in Ukraine. When Russian troops invaded Crimea, Russian media looked the other way. Even Western media organizations indirectly gave strength to Russia's denials in the struggle to maintain balance amid the confusion.    But behind the deliberately confusing rhetoric were essential facts. Russia had invaded a sovereign country and was lying about it. And when it became impossible to deny the presence of what later became known as the little green men, they were hailed as volunteers compelled to rescue fellow Russians from Ukrainian fascists.    Through denial and deception, the Kremlin was able to shape reality or at least make it difficult to uncover what that reality really is. With the international community stunned and incapacitated, Russia sent in tanks, troops and weapons.    Crimea was annexed and Russian-backed separatists gained ground in eastern Ukraine. The disinformation tactics employed by RT during the war in Ukraine I saw used before, though not as vigorously and strategically.    The most celebrated host at the channel holds staunch anti-Western views where deranged conspiracy theories are given a platform. It didn't matter how credible the voices were as long as the underlying message was reinforced--that the U.S. and West is crumbling, corrupt and hypocritical.    There was a running joke among some employees about adopting this mind set by drinking the Kool-Aid. I saw how employees and viewers eventually drank it all up. It is the result of being engrossed in an environment where hating America was rewarded.    It is a mentality that is perpetuated by Internet personalities that gain followers and a sense of belonging by spewing hate and twisting the truth. One of the many things I came to find troubling was the surprising amount of people prone to being manipulated.    Part of it is that with this explosion of information constantly generated online it had become difficult to tell fact from fiction, to sift through it all. Another part of it is the trend of thinking it is hip to believe in any anti-establishment alternative theory.    Russia is aware of this population of paranoid skeptics and plays them like a fiddle. Those that challenge any narrative against Russia are branded CIA agents, of being puppets for neo-conservatives intent on reigniting a cold war and face the ire of seemingly countless paid and volunteer online trolls.    I was accused of being all of these things and faced the constant stream of cyber hate for being perceived as such. Now, this is just a minor example of this new propaganda technique in action.    The Russian bosses say that the organization is simply providing another perspective, one that is ignored in Western media. The implication there is that there is no such thing as an objective truth.    But let us not get duped by this falsehood. Someone is responsible for pulling the trigger that killed Russian opposition leader Boris Nemtsov. Someone is responsible for launching the BUK missile that downed MH-17, killing all 298 passengers on board.    This is not open to interpretation because behind the strategically false finger pointing there is a true story and in both cases the story is still unclear and there is someone that prefers it stays that way.    We shouldn't let it slide. We need to take notice and take action and the best weapon against this rapidly expanding propaganda campaign is the truth. We just need to fight for it.    We fight it by refusing to look the other way when a lie is told and by spreading awareness about this new disinformation stream that is polluting the airwaves and online discussions that shape our perception of world events.    We fight it by thinking before clicking, tweeting or sharing an article that aims to deceive, and while it is true that the truth can be difficult to uncover, we should seek to find it, spread it and learn from it whatever that truth may be.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Royce. Thank you, Ms. Wahl.    Ms. Dale.</t>
   </si>
   <si>
-    <t>Dale</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Dale. Chairman Royce----</t>
   </si>
   <si>
@@ -142,9 +127,6 @@
     <t>400343</t>
   </si>
   <si>
-    <t>Dana Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Well, having been a former journalist myself and know about the way our journalist profession works in the United States, and I have been very interested in your analysis that truth is the way that we should fight this threat and I agree with that.    I would hope that we are honest enough with one another to realize that we have major flaws in our dissemination of facts and information in the United States as well.    So the truth may well be what we have heard today in the testimony, that Russia is engaged in a major effort to basically support its own policies and promote changes and effects on other populations that further the interests of Russia.    I would be surprised if that wasn't the case. Let me just note that so I can accept everything that was said here I would have preferred, Mr. Chairman, that we had at least one other person to balance out this in a way that perhaps could have compared our system to the Russian system and to find out where that truth is, just how bad that is.    There are, by the way, I am convinced there are people here in the United States who want us to have the same status toward Russia today as we had during the Cold War and they still believe that this--we should be in a Cold War status and that Russia is today the same as it was under communism and that Putin is Brezhnev, if not Hitler.    And I don't believe that necessarily those people who are promoting that concept are any more accurate than the Russians that you are now talking about presenting their concepts.    You know, I--frankly, I think there is a little bit of fanaticism on both sides that don't hear both sides and if we are going to have peace in this world we have got to be disciplined ourselves in searching for that truth.    And I just say that when I was a newsman I remember covering stories and I don't want to be too--I won't name the exact publications but I know major publications that would not cover a story that made us Republicans look good and all the journalists who worked for some very strong newspapers in southern California were just basically propaganda for the liberal left position in our political spectrum.    And I saw that and, yeah, so we have bias here and they have bias there and let us find out what the truth is and I would have preferred, as I say, Mr. Chairman, would have had at least someone to talk about that, to give us that type of analysis.    But I am very happy that we have this information being presented to us today. Let me just ask this about, you know, the stories. What caused you to leave RT? RT is, obviously, a Russian propaganda outlet. I mean, obviously, it is.    I mean, we would expect it to be, and we have private--that is why we have private media in the United States so we don't have our Government setting a policy for what the information will flow.    But I will have to say that in terms of this whole conflict in Ukraine, when I--almost everybody I know no one ever starts the scenario about what was going on in Ukraine with the violent overthrow of an elected President. They always started with the scenario where Russian troops came in.    I happen to oppose any idea that Russian troops should ever have been introduced in that country but I also recognize that a democratically-elected President was violently overthrown in order to achieve certain political objectives in that country.    And so I would hope that we search for the truth and that we understand that all of the horrible things that you are talking about today and the direction of the Russian Government out to get--make sure its interests are being taken care of by propaganda offensive, we understand that.    But that we have the discipline to be honest and seek the truth ourselves and not just fall into this Hitler--Putin is Hitler and this is--and Russia hasn't changed since the Cold War.    We don't need another Cold War. We don't need to be--to take such belligerent stands and I will tell you I find that belligerence on both sides of this fight.</t>
   </si>
   <si>
@@ -169,9 +151,6 @@
     <t>400271</t>
   </si>
   <si>
-    <t>Gregory W. Meeks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meeks. Thank you, Mr. Chairman, and thank you, Ms. Wahl, for your push back.    I just, on this subject, will say that I think you are right in the sense that I wouldn't have any problem with RT if there were other media outlets in Russia, you know, various perspectives and that is what, you know, I think is tremendously different in the United States.    You know, we have--you know, I listen to Fox, as you said, and I think that is propaganda and the other side listens to     But at least you have two or three and you have other alternatives of which you can listen to so that you can then make your determination as to where and what is--you know, where you are for.    Whereas, from where I am understanding, there is no government-ran institution. RT seems to be financed exclusively by the government which means that they can exclude anything that does not favor the government.    We would have a tremendous problem here if in fact, for example, you know, what we have dialogue right now, whatever side, whoever is the President of the United States. If Barack Obama was able to just put out his side without anything else, you know, we would be up in arms in this country.    I know when George Bush was President if the paper just only put out George Bush's side I would have had a big problem. The fact of the matter is you can have the argument on both sides.    You can't go after the press and, you know, and I don't like some of the things that the press writes but they have the right to write it based upon our Constitution and I think that is a major difference.    So for me, as opposed to focusing on because they, Russia, and how they run is different than what we do in the United States and I understand that CNN, for example, international can play inside of Russia but it is not in the Russian language so it is only in English so therefore people don't understand that.    So my then concern will then go to what takes place outside of Russia, I think, is where Mr. Engel was going as far as the influence so that other areas can have equitable opportunity to listen to all sides.    Russian TV is there, can we--do we have other, whether it is local television from, you know, maybe in Moldova or in Georgia where they are countering or have more freedom to say what the other side is.    Do we have America--what can we do to make sure that that choice that I am talking about that we have in America, particularly within the European countries, that we have--that they have the choice and are not listening to one thing but multiple things.    And I am not saying cut out Russia or RT. I am saying make sure they have all of the evidence so that they can then make a determination of what they believe or don't believe as we do here.</t>
   </si>
   <si>
@@ -196,9 +175,6 @@
     <t>412569</t>
   </si>
   <si>
-    <t>Scott Perry</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Perry. Thank you, Mr. Chairman. I apologize for not being here up front.    I was next door at another committee hearing, and I hope to get to some questions but I think it is important for the record to give some people a sense of history they might not know because we have people in this country and around the world that are apologists for what Russia and other similar nations and viewpoints are doing and so I think it is important to reflect on the past and know that this has been going on--this is nothing new.    And so I am just going to read--this is out of a book published in 1986, I think, called ``The Harvest of Sorrow'' and it is in regard to the terror famine forced on Ukraine by the USSR and Russia.    So the first passage is--that I will read,        ``And even more striking or at least a more important         aspect of the psychopathy of Stalinism may be seen in         the fact that no word about the famine was allowed to         appear in the press or elsewhere. People who referred         to it were subject to arrest for anti-Soviet         propaganda, usually getting 5 or more years in labor         camps.''    And then,          ``Hitler approvingly calls the big lie. He knew that         even when the truth may be readily available, the         deceiver need not give up.          ``He saw that the flat denial on one hand and the         injection into the pool of information of the corpus of         positive falsehood on the other were sufficient to         confuse the issue for the passively uninstructed         foreign audience and to induce acceptance of the         Stalinist version of those actively seeking to be         deceived,''and I have got a few more here that I found interesting.    This is in regard to a gentleman named Walter Duranty who reported or failed to report or misreported on the famine of the time who was working for the New York Times. This passage says that        ``What the American public got was not the straight         stuff but the false reporting. Its influence was         enormous and long-lasting.''    Furthermore, regarding Duranty, who was a Pulitzer Prize winner for the New York Times based on his work in Ukraine, the praise which went to Duranty was, clearly, not due to a desire to know the truth but, rather, a desire--to a desire of many to be told what they wished to hear and, of course, his own motives needed no explaining.    One communist gave as the reason or one of the reasons for the suppression of the truth the fact that the USSR could not only win the support of workers in the capitalist countries if the human cost of its policies was concealed.    So I do have a little time for some questions and that is just part of the historical perspective of what has been refined over time, and Americans and free people around the globe must be--must be apprised of this and must be aware of it and must be prepared to fight for their freedoms because if they don't will fall prey to the same thing.    I am going to just say Peter, if that is okay with you, the question I think I have for you and I apologize if it has already been asked, there are reports of think tanks becoming puppets of Putin, and I think you have identified the Institute for Democracy and Cooperation in New York as one in particular, if that is true.    What is the strategy behind co-opting these think tanks? Is the strategy working?</t>
   </si>
   <si>
@@ -212,9 +188,6 @@
   </si>
   <si>
     <t>412576</t>
-  </si>
-  <si>
-    <t>Joaquin Castro</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Castro. Thank you, Chairman, and thank you to each of the witnesses for your testimony and for your scholarship and your experiences on these issues.    Mr. Pomerantsev, you mentioned the development of conspiracy theories and particularly on the far right in Russia the development of those conspiracy theories.    I would ask you, do you see that spreading anywhere else? Is Russia the worst actor with respect to this or how do you see that developing in other nations?</t>
@@ -655,11 +628,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -679,13 +650,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -707,11 +676,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -731,13 +698,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -759,11 +724,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -783,13 +746,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -811,11 +772,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -835,13 +794,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -863,11 +820,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -887,13 +842,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -915,11 +868,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -939,13 +890,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -967,11 +916,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -991,13 +938,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1019,11 +964,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1043,13 +986,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1071,11 +1012,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1095,13 +1034,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1121,13 +1058,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1147,13 +1082,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1173,13 +1106,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1201,11 +1132,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1225,13 +1154,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" t="s">
-        <v>42</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1251,13 +1178,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1277,13 +1202,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s">
-        <v>42</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1303,13 +1226,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1329,13 +1250,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
         <v>41</v>
-      </c>
-      <c r="G28" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1355,13 +1274,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1383,11 +1300,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1407,13 +1322,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1433,13 +1346,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1459,13 +1370,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" t="s">
-        <v>51</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1485,13 +1394,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1511,13 +1418,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1537,13 +1442,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1565,11 +1468,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1589,13 +1490,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
-      </c>
-      <c r="G38" t="s">
-        <v>60</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1615,13 +1514,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1641,13 +1538,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
-      </c>
-      <c r="G40" t="s">
-        <v>60</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1669,11 +1564,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1693,13 +1586,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>65</v>
-      </c>
-      <c r="G42" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1719,13 +1610,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1745,13 +1634,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>65</v>
-      </c>
-      <c r="G44" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1771,13 +1658,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1797,13 +1682,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>65</v>
-      </c>
-      <c r="G46" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1823,13 +1706,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1849,13 +1730,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
-      </c>
-      <c r="G48" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1875,13 +1754,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1901,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
         <v>65</v>
-      </c>
-      <c r="G50" t="s">
-        <v>66</v>
-      </c>
-      <c r="H50" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1927,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1953,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>65</v>
-      </c>
-      <c r="G52" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1979,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2005,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>65</v>
-      </c>
-      <c r="G54" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2031,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2057,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2085,11 +1948,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94186.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94186.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400348</t>
   </si>
   <si>
+    <t>Royce</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Royce. This hearing will come to order. I will ask if the members can all take their seats.    And I had an opportunity in the early 1980s to go into East Germany and spend some time there, and during that time to see the quality of propaganda being broadcast into the East Bloc by Russia, the type of disinformation campaign that was going on.    And I would have to say that since that time the caliber of propaganda has become much more clever than that which was disseminated then.    And today we are going to look at the danger of Russia's misinformation campaign in Europe and, indeed, today that misinformation campaign is worldwide and we are also going to look at the failed response to that effort.    And as we will hear today, Russia's propaganda machine is really at this time in overdrive and part of the focus, from my standpoint, seems to be to subvert democratic stability. And, frankly, there is also an element of this that goes to the issue of fomenting violence in Eastern Europe.    Now, myself and Eliot Engel had an opportunity to go into Dnepropetrovsk and talk to civil society, the women's groups, a lot of different organizations, the lawyers groups, and this was one of the issues that people are concerned about and these tactics have undermined the government in Ukraine and, frankly, helped lay a foundation for invasion there.    This same plan is being worked in Eastern and Central Europe and this Russian propaganda has the potential to destabilize NATO members and it could impact our security commitments, especially if we look at some of what is going on in the Baltic States.    So this Russian campaign, what one witness describes as the ``weaponization of information,'' seriously threatens U.S. security. Russia has deployed an information army inside television, radio, and newspapers throughout Europe.    Some are doing the Kremlin's bidding and are given explicit guidelines to obscure the truth by spreading conspiracies, and I would just give you examples of some of the things you read now on these Russian broadcasts or some of the things that are alluded to.    One was a conspiracy that our own Government here is responsible for everything from 9/11, the attack on 9/11 to the downing of Malaysia Flight MH17 over Ukraine. Others are simply paid more for demonizing the West, while those who pursue credible reporting are pushed aside.    Today, we will hear from journalist Liz Wahl, who dramatically interrupted a live broadcast to resign from RT, a Russian outlet, explaining she could not stand by its distorted coverage of Russia's occupation of Ukraine.    Meanwhile, independent journalists in Russia have come under attack. There have been three journalists in Russia killed so far this year. Unfortunately, Ms. Wahl is a rarity.    So Russian speakers in the frontline states like the Baltic, Ukraine, and Moldova continue to be told that their governments want to oppress and render them second class citizens.    Unfortunately, many are buying this divisive message. In parts of Europe where there aren't Russian speaking populations there is also a message and that message is that Western democracy is morally corrupt and that integration with Europe since the Cold War has failed.    It is estimated that Putin is spending more than $600 million a year to deride democratic pluralism and the U.S. response to this? Well, the agency expected to manage our response, the Broadcasting Board of Governors, is far behind.    After years of Mr. Putin ramping up the effort in Russia, last fall the BBG finally launched its flagship response to Russian propaganda--a mere 30-minute television news program in the Russian language called ``Current Time.''    The program was put on air in Lithuania, Moldova, Georgia, Ukraine, and Latvia. But after just 4 months it was pulled in Latvia because it couldn't draw an audience. Now, what U.S.-backed news and information that does get through, the amount of that is a thimble of journalistic credibility in an ocean of Russian-driven news distortion and this isn't a matter of resources, from my perspective.    U.S. broadcasters are laboring under a flawed bureaucracy. Members may recall that then Secretary Clinton called the agency defunct in her testimony before this committee in 2013.    The Inspector General and the Government Accountability Office have been highly critical, and the agency hired a CEO and he quit after 42 days on the job. Last week, the director of the VOA announced his resignation.    Our international broadcasting is in disarray. The journalists of the BBG risk their lives reporting from the front lines across the world. They deserve better support, and the American people need much more from this agency if we are going to respond to the rapidly evolving media environment and better secure the long-term security interests of the United States.    Last Congress, the House unanimously passed bipartisan legislation introduced by myself and Ranking Member Eliot Engel. This legislation is referenced in an op-ed today in the Wall Street Journal that I wrote.    But I will just share with the members here that that legislation will help us fight Putin's propaganda by allowing more resources to be spent in the field and on content instead of on a broken bureaucracy, and by clarifying the BBG's mission, creating accountable leadership through a CEO and reducing the bureaucracy, this can lead to a situation where the budget there can be spent on disseminating truthful news and that should be the goal.    Righting international broadcasting must be an urgent priority in our foreign policy, and now I would like to turn to the ranking member of this committee and the co-author of the legislation to do this, Mr. Eliot Engel of New York.</t>
   </si>
   <si>
     <t>400122</t>
   </si>
   <si>
+    <t>Engel</t>
+  </si>
+  <si>
+    <t>Eliot</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Engel. Thank you very much, Mr. Chairman.    Thank you for calling this morning's hearing and I especially want to thank you for your leadership as this committee works to address the growing Russian threat. You have really been right on top of it.    I really appreciate it and it is just so important. Thank you for your courage and for your voice. It has been a pleasure to be your partner.    Let me also thank our witnesses today for sharing your expertise about a major part of that threat--Russia's new and intensified propaganda effort.    It is long past due that we take a hard look at this challenge. The Kremlin's disorientation campaign goes beyond political spin and disinformation.    What we see pouring out of the Kremlin amounts to the weaponization of information. Propaganda is a critical element of Russia's so-called hybrid warfare strategy, a strategy on devastating display in occupied Crimea and war-torn eastern Ukraine.    Coupled with cyber-attacks and other covert operations, these new capabilities and Vladimir Putin's belligerence pose a direct threat to our allies and our interests.    These measures are well financed, these measures are working and these measures demand a robust response from us. Kremlin-controlled media are putting down roots around the world.    Russian financial support is bolstering fringe political parties, creating puppet NGOs and fostering a facade of academic research sympathetic to Vladimir Putin's anti-democratic world view.    The Kremlin aims to undermine democratic organizations and alliances. Russia's leaders want to divide allies and partners while seeking to discredit the post-Cold War order in Europe.    This strategy is not just to disseminate lies but to sow doubt and confusion, especially about what is actually and really happening in Ukraine. The component of this propaganda war that concerns me most is the influx of Kremlin-controlled television broadcasts in frontline states.    From the Baltics to Central Asia, a Russian-speaking population of nearly 100 million people is getting its news from such distorted broadcasts. Here, the Kremlin uses high quality entertainment to draw an audience, then interlaces that programming with their twisted and false perspective on political, military and economic events.    Today, I hope we can hear more about Russia's propaganda campaign and, more importantly, what we can do to push back against it. We cannot match the hundreds of millions of dollars the Kremlin is blowing into this effort.    Instead, we must look to create thinking and broad-based partnerships. Given the scale of the Kremlin efforts, it is clear to me that traditional public affairs and public diplomacy, while important parts of a broader effort, do not go far enough.    We have seen some promising initiatives. For instance, the Governments of Latvia and Estonia are developing a plan to launch Russian language television networks in their respective countries.    They want to create platform for content sharing and establish a fund for the production of locally focused content. Additionally, we anticipate a feasibility study this spring from the European Endowment for Democracy recommending a similar approach.    Mr. Chairman, as you recognized, the United States needs its own strategy to deal with this and we need it now. I have been told that our State Department is now working full tilt toward a plan to address this problem.    This can't come soon enough. We are eager to work with the administration to develop this plan and set it in motion because the United States has a major role to play.    In my view, the United States is in a unique position to convene partners from the private sector that will be essential for the success of such initiatives. Furthermore, U.S. leadership will be necessary to ensuring that reluctant Western European allies understand and appreciate the risks posed by an unchecked Kremlin propaganda campaign.    One thing is clear. Meeting this challenge will certainly not be easy. A nondemocratic government in Russia is able to devote nearly limitless resources to spreading lies and sowing confusion, disinformation and division.    But the stakes are high and acting sooner rather than later will make a daunting task a little easier and much more effective over the long run.    I look forward to hearing our witnesses' views on this challenge and their ideas about how we are going to deal with it. So thank you again, Mr. Chairman, for calling this hearing.</t>
   </si>
   <si>
@@ -67,18 +82,27 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Pomerantsev</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pomerantsev. Thank you very much for having me here.    Russia's information war--we have been hearing these words a lot lately. Russia has launched the most amazing information warfare blitzkrieg we have ever seen since Supreme Allied Commander General Philip Breedlove after the annexation of Crimea.    We are losing the information war, complained the British head of the House of Commons' Culture and Media Committee as the Kremlin international media was launched in London.    Information war is now the main type of war, argues Dmitry Kiselyov, the infamous Russian TV presenter and Kremlin media boss who also likes to remind the world, and it shows, that Russia can turn the USA into radioactive ash. But what do we mean when we say information war?    Because if we mean propaganda as mass persuasion, propaganda in the sense of some sort of geopolitical debate where each side tries to convince the other it is right, well, then we don't understand the real threat of the Kremlin's information war at all.    To understand what it actually is, let us go back to 1999. Back then, Russian Defense Minister Marshal Igor Sergeyev admitted the Kremlin could never match the West militarily and needed to find, in his words, revolutionary powers and asymmetric responses to compete.    Look at it from the Kremlin's point of view. NATO is undefeatable on the battlefield. The West has a much stronger social and political system--democracy based on openness and competition.    But what if the Kremlin could bypass NATO militarily, make war without ever, officially at least, firing a shot? What if it could use the very openness of democracy's open markets, open culture and, very importantly, open information against us?    So over the 21st century, Russian military theorists developed a theory of what they called information psychological or hybrid war--a mix of media, economic and cultural warfare with a dab of covert military action.    We saw an early example of this is Estonia in 2007 when Estonian authorities decided to move a Soviet war memorial from the center of the city. Russian media, which is very widely available in Estonia, went into a frenzy, accusing the Estonians of fascism.    Russian vigilante groups started riots in the center of Tallinn. A massive cyber-attack disabled Estonia's Government and banking sectors.    Moscow was sending a message, despite membership of NATO and EU, that Estonia and all other frontline states were still vulnerable and the Kremlin could cripple them without giving Estonia a chance to invoke NATO's Article 5.    The aim was not just to humiliate Tallinn but show that Western and, specifically, American promises of security are empty and once the NATO alliance has been undermined and American influence weakened, then the Kremlin will have a stronger hand to play around the world.    Since 2007, the Kremlin's information psychological strategy has expanded. The Kremlin is now bankrolling and lending political support to both far right and far left parties in Europe while using open markets to make whole countries dependent on its money and energy.    Unlike their Soviet predecessors, this regime will work with anyone as long as they help create stability in their home countries. The Kremlin is also putting out its message in multiple media 24/7.    Russian language media reaches 30 million Russians outside of Russia, a lot of them in EU and NATO states. The Kremlin has invested hundreds of millions into foreign language media.    Russia Today (RT) broadcasts in English, Spanish, German and Arabic. There is the web and radio service Sputnik, while the Kremlin also funds troll farms, regime-funded companies who spread messages online in social media and comment sections.    Conspiracy theories, disinformation and fake news are a staple in these media claims that the U.S. invented Ebola as a weapon or re-editing interviews with Ukrainian rabbis to make it seem contrary to what they actually said, that there is a threat to the Jewish community in post-Maidan Ukraine, or even planting stories that the Rand Corporation is advising the Ukrainian Government on how to ethnically cleanse east Ukraine.    The ultimate aim of the Kremlin's international media is not to make anyone like Russia. It is not PR or necessarily engaged in fact-based journalism.    Instead, information is used to sow divisions, demoralize and disorganize--to weaponize information. After Malaysian Flight MH-17 was shot down over eastern Ukraine by Russian missiles last summer, Russian media spewed out scores of outlandish stories, blaming Ukrainian fighter jets, claiming the plane had deliberately taken off from Amsterdam carrying dead bodies.    Their aim appears to have been to trash the information space with so much misinformation that a conversation based on actual facts would become impossible. This is not merely an information war but a war on information.    If the very possibility of rational argument is submerged in a fog of uncertainty, the public will give up trying to understand what happened. Trust, the key ingredient of democracy, is destroyed and the strategy is working.    Recent research in Ukraine and the Baltics shows that audiences exposed to both Russian and local media end up not trusting anyone. In Germany, 43 percent do not trust anything they read on Ukraine.    Throughout Europe, conspiracy theories are on the rise and in the U.S. trust in the media has declined. The Kremlin may not always have initiated this phenomena but it is fanning them.    And I would like to finish with the fact it is not just Russia and the Kremlin doing it. The Chinese are starting a similar tactic in Asia. We see how ISIS works in the Middle East.    This is a global problem. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Royce. Thank you.    Ms. Wahl.</t>
   </si>
   <si>
+    <t>Wahl</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Wahl. All right. We are dealing with an organization that doesn't play by the rules, where the facts on the ground and the reality that citizens face as a result of them don't matter, at least when that reality clashes with Russia's foreign policy agenda.    In that case, one or more alternative realities are pushed, anything to deflect from the facts and confuse the public.    Of course, Russia has a history rich in propaganda but for a while it seemed to lie dormant as many hoped that a reset in diplomatic relations meant a change in direction.    But during the war in Ukraine, the Russian-funded television channel RT was mobilized as a weapon to manipulate people into believing half-truths and lies skewing reality in the Kremlin's favor.    And I saw firsthand how this was orchestrated. When the protests erupted in Maidan Square it was made to look not like a popular uprising but comprised mostly of bloodthirsty neo-Nazis and fascists.    Through misleading language, RT pinned the blame on the West for fomenting unrest in Ukraine. When Russian troops invaded Crimea, Russian media looked the other way. Even Western media organizations indirectly gave strength to Russia's denials in the struggle to maintain balance amid the confusion.    But behind the deliberately confusing rhetoric were essential facts. Russia had invaded a sovereign country and was lying about it. And when it became impossible to deny the presence of what later became known as the little green men, they were hailed as volunteers compelled to rescue fellow Russians from Ukrainian fascists.    Through denial and deception, the Kremlin was able to shape reality or at least make it difficult to uncover what that reality really is. With the international community stunned and incapacitated, Russia sent in tanks, troops and weapons.    Crimea was annexed and Russian-backed separatists gained ground in eastern Ukraine. The disinformation tactics employed by RT during the war in Ukraine I saw used before, though not as vigorously and strategically.    The most celebrated host at the channel holds staunch anti-Western views where deranged conspiracy theories are given a platform. It didn't matter how credible the voices were as long as the underlying message was reinforced--that the U.S. and West is crumbling, corrupt and hypocritical.    There was a running joke among some employees about adopting this mind set by drinking the Kool-Aid. I saw how employees and viewers eventually drank it all up. It is the result of being engrossed in an environment where hating America was rewarded.    It is a mentality that is perpetuated by Internet personalities that gain followers and a sense of belonging by spewing hate and twisting the truth. One of the many things I came to find troubling was the surprising amount of people prone to being manipulated.    Part of it is that with this explosion of information constantly generated online it had become difficult to tell fact from fiction, to sift through it all. Another part of it is the trend of thinking it is hip to believe in any anti-establishment alternative theory.    Russia is aware of this population of paranoid skeptics and plays them like a fiddle. Those that challenge any narrative against Russia are branded CIA agents, of being puppets for neo-conservatives intent on reigniting a cold war and face the ire of seemingly countless paid and volunteer online trolls.    I was accused of being all of these things and faced the constant stream of cyber hate for being perceived as such. Now, this is just a minor example of this new propaganda technique in action.    The Russian bosses say that the organization is simply providing another perspective, one that is ignored in Western media. The implication there is that there is no such thing as an objective truth.    But let us not get duped by this falsehood. Someone is responsible for pulling the trigger that killed Russian opposition leader Boris Nemtsov. Someone is responsible for launching the BUK missile that downed MH-17, killing all 298 passengers on board.    This is not open to interpretation because behind the strategically false finger pointing there is a true story and in both cases the story is still unclear and there is someone that prefers it stays that way.    We shouldn't let it slide. We need to take notice and take action and the best weapon against this rapidly expanding propaganda campaign is the truth. We just need to fight for it.    We fight it by refusing to look the other way when a lie is told and by spreading awareness about this new disinformation stream that is polluting the airwaves and online discussions that shape our perception of world events.    We fight it by thinking before clicking, tweeting or sharing an article that aims to deceive, and while it is true that the truth can be difficult to uncover, we should seek to find it, spread it and learn from it whatever that truth may be.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Royce. Thank you, Ms. Wahl.    Ms. Dale.</t>
   </si>
   <si>
+    <t>Dale</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Dale. Chairman Royce----</t>
   </si>
   <si>
@@ -127,6 +151,12 @@
     <t>400343</t>
   </si>
   <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Well, having been a former journalist myself and know about the way our journalist profession works in the United States, and I have been very interested in your analysis that truth is the way that we should fight this threat and I agree with that.    I would hope that we are honest enough with one another to realize that we have major flaws in our dissemination of facts and information in the United States as well.    So the truth may well be what we have heard today in the testimony, that Russia is engaged in a major effort to basically support its own policies and promote changes and effects on other populations that further the interests of Russia.    I would be surprised if that wasn't the case. Let me just note that so I can accept everything that was said here I would have preferred, Mr. Chairman, that we had at least one other person to balance out this in a way that perhaps could have compared our system to the Russian system and to find out where that truth is, just how bad that is.    There are, by the way, I am convinced there are people here in the United States who want us to have the same status toward Russia today as we had during the Cold War and they still believe that this--we should be in a Cold War status and that Russia is today the same as it was under communism and that Putin is Brezhnev, if not Hitler.    And I don't believe that necessarily those people who are promoting that concept are any more accurate than the Russians that you are now talking about presenting their concepts.    You know, I--frankly, I think there is a little bit of fanaticism on both sides that don't hear both sides and if we are going to have peace in this world we have got to be disciplined ourselves in searching for that truth.    And I just say that when I was a newsman I remember covering stories and I don't want to be too--I won't name the exact publications but I know major publications that would not cover a story that made us Republicans look good and all the journalists who worked for some very strong newspapers in southern California were just basically propaganda for the liberal left position in our political spectrum.    And I saw that and, yeah, so we have bias here and they have bias there and let us find out what the truth is and I would have preferred, as I say, Mr. Chairman, would have had at least someone to talk about that, to give us that type of analysis.    But I am very happy that we have this information being presented to us today. Let me just ask this about, you know, the stories. What caused you to leave RT? RT is, obviously, a Russian propaganda outlet. I mean, obviously, it is.    I mean, we would expect it to be, and we have private--that is why we have private media in the United States so we don't have our Government setting a policy for what the information will flow.    But I will have to say that in terms of this whole conflict in Ukraine, when I--almost everybody I know no one ever starts the scenario about what was going on in Ukraine with the violent overthrow of an elected President. They always started with the scenario where Russian troops came in.    I happen to oppose any idea that Russian troops should ever have been introduced in that country but I also recognize that a democratically-elected President was violently overthrown in order to achieve certain political objectives in that country.    And so I would hope that we search for the truth and that we understand that all of the horrible things that you are talking about today and the direction of the Russian Government out to get--make sure its interests are being taken care of by propaganda offensive, we understand that.    But that we have the discipline to be honest and seek the truth ourselves and not just fall into this Hitler--Putin is Hitler and this is--and Russia hasn't changed since the Cold War.    We don't need another Cold War. We don't need to be--to take such belligerent stands and I will tell you I find that belligerence on both sides of this fight.</t>
   </si>
   <si>
@@ -151,6 +181,12 @@
     <t>400271</t>
   </si>
   <si>
+    <t>Meeks</t>
+  </si>
+  <si>
+    <t>Gregory</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Meeks. Thank you, Mr. Chairman, and thank you, Ms. Wahl, for your push back.    I just, on this subject, will say that I think you are right in the sense that I wouldn't have any problem with RT if there were other media outlets in Russia, you know, various perspectives and that is what, you know, I think is tremendously different in the United States.    You know, we have--you know, I listen to Fox, as you said, and I think that is propaganda and the other side listens to     But at least you have two or three and you have other alternatives of which you can listen to so that you can then make your determination as to where and what is--you know, where you are for.    Whereas, from where I am understanding, there is no government-ran institution. RT seems to be financed exclusively by the government which means that they can exclude anything that does not favor the government.    We would have a tremendous problem here if in fact, for example, you know, what we have dialogue right now, whatever side, whoever is the President of the United States. If Barack Obama was able to just put out his side without anything else, you know, we would be up in arms in this country.    I know when George Bush was President if the paper just only put out George Bush's side I would have had a big problem. The fact of the matter is you can have the argument on both sides.    You can't go after the press and, you know, and I don't like some of the things that the press writes but they have the right to write it based upon our Constitution and I think that is a major difference.    So for me, as opposed to focusing on because they, Russia, and how they run is different than what we do in the United States and I understand that CNN, for example, international can play inside of Russia but it is not in the Russian language so it is only in English so therefore people don't understand that.    So my then concern will then go to what takes place outside of Russia, I think, is where Mr. Engel was going as far as the influence so that other areas can have equitable opportunity to listen to all sides.    Russian TV is there, can we--do we have other, whether it is local television from, you know, maybe in Moldova or in Georgia where they are countering or have more freedom to say what the other side is.    Do we have America--what can we do to make sure that that choice that I am talking about that we have in America, particularly within the European countries, that we have--that they have the choice and are not listening to one thing but multiple things.    And I am not saying cut out Russia or RT. I am saying make sure they have all of the evidence so that they can then make a determination of what they believe or don't believe as we do here.</t>
   </si>
   <si>
@@ -175,6 +211,12 @@
     <t>412569</t>
   </si>
   <si>
+    <t>Perry</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Perry. Thank you, Mr. Chairman. I apologize for not being here up front.    I was next door at another committee hearing, and I hope to get to some questions but I think it is important for the record to give some people a sense of history they might not know because we have people in this country and around the world that are apologists for what Russia and other similar nations and viewpoints are doing and so I think it is important to reflect on the past and know that this has been going on--this is nothing new.    And so I am just going to read--this is out of a book published in 1986, I think, called ``The Harvest of Sorrow'' and it is in regard to the terror famine forced on Ukraine by the USSR and Russia.    So the first passage is--that I will read,        ``And even more striking or at least a more important         aspect of the psychopathy of Stalinism may be seen in         the fact that no word about the famine was allowed to         appear in the press or elsewhere. People who referred         to it were subject to arrest for anti-Soviet         propaganda, usually getting 5 or more years in labor         camps.''    And then,          ``Hitler approvingly calls the big lie. He knew that         even when the truth may be readily available, the         deceiver need not give up.          ``He saw that the flat denial on one hand and the         injection into the pool of information of the corpus of         positive falsehood on the other were sufficient to         confuse the issue for the passively uninstructed         foreign audience and to induce acceptance of the         Stalinist version of those actively seeking to be         deceived,''and I have got a few more here that I found interesting.    This is in regard to a gentleman named Walter Duranty who reported or failed to report or misreported on the famine of the time who was working for the New York Times. This passage says that        ``What the American public got was not the straight         stuff but the false reporting. Its influence was         enormous and long-lasting.''    Furthermore, regarding Duranty, who was a Pulitzer Prize winner for the New York Times based on his work in Ukraine, the praise which went to Duranty was, clearly, not due to a desire to know the truth but, rather, a desire--to a desire of many to be told what they wished to hear and, of course, his own motives needed no explaining.    One communist gave as the reason or one of the reasons for the suppression of the truth the fact that the USSR could not only win the support of workers in the capitalist countries if the human cost of its policies was concealed.    So I do have a little time for some questions and that is just part of the historical perspective of what has been refined over time, and Americans and free people around the globe must be--must be apprised of this and must be aware of it and must be prepared to fight for their freedoms because if they don't will fall prey to the same thing.    I am going to just say Peter, if that is okay with you, the question I think I have for you and I apologize if it has already been asked, there are reports of think tanks becoming puppets of Putin, and I think you have identified the Institute for Democracy and Cooperation in New York as one in particular, if that is true.    What is the strategy behind co-opting these think tanks? Is the strategy working?</t>
   </si>
   <si>
@@ -188,6 +230,12 @@
   </si>
   <si>
     <t>412576</t>
+  </si>
+  <si>
+    <t>Castro</t>
+  </si>
+  <si>
+    <t>Joaquin</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Castro. Thank you, Chairman, and thank you to each of the witnesses for your testimony and for your scholarship and your experiences on these issues.    Mr. Pomerantsev, you mentioned the development of conspiracy theories and particularly on the far right in Russia the development of those conspiracy theories.    I would ask you, do you see that spreading anywhere else? Is Russia the worst actor with respect to this or how do you see that developing in other nations?</t>
@@ -578,7 +626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,7 +634,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,1349 +656,1582 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G31" t="s">
+        <v>55</v>
+      </c>
       <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G33" t="s">
+        <v>55</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>52</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="G38" t="s">
+        <v>65</v>
+      </c>
       <c r="H38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>52</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="G40" t="s">
+        <v>65</v>
+      </c>
       <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
       <c r="H41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G42" t="s">
+        <v>72</v>
+      </c>
       <c r="H42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G44" t="s">
+        <v>72</v>
+      </c>
       <c r="H44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G46" t="s">
+        <v>72</v>
+      </c>
       <c r="H46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>57</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G48" t="s">
+        <v>72</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>57</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G50" t="s">
+        <v>72</v>
+      </c>
       <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>57</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G52" t="s">
+        <v>72</v>
+      </c>
       <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>57</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G54" t="s">
+        <v>72</v>
+      </c>
       <c r="H54" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G56" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
       <c r="H57" t="s">
-        <v>71</v>
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94186.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94186.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400348</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Royce</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400122</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Engel</t>
   </si>
   <si>
@@ -149,6 +158,9 @@
   </si>
   <si>
     <t>400343</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Rohrabacher</t>
@@ -626,7 +638,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,7 +646,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,1579 +671,1700 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>28</v>
       </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" t="s">
-        <v>45</v>
-      </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>50</v>
+      </c>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G31" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G33" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G38" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>70</v>
+      </c>
+      <c r="J38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G40" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="H40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I40" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>70</v>
+      </c>
+      <c r="J40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H42" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H44" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I44" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G46" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H46" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I46" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>22</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G48" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H48" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>22</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>25</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G50" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I50" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>22</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G52" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I52" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>25</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G54" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>28</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>31</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>87</v>
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
